--- a/hybridOfActiTimeProject/data/ActiTimeTestData.xlsx
+++ b/hybridOfActiTimeProject/data/ActiTimeTestData.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qspiders Wakad\git\wcsm8.1repository\wcsm8seleniumproject\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qspiders Wakad\git\wcsm8.1repository\hybridOfActiTimeProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF14502-249B-4F3B-B2AC-4F3268083DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF22C249-0F46-4D17-9962-BC1AC64EBCF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
     <sheet name="invalidcreds" sheetId="2" r:id="rId2"/>
-    <sheet name="createusers" sheetId="3" r:id="rId3"/>
+    <sheet name="mgr" sheetId="3" r:id="rId3"/>
+    <sheet name="customer&amp;projectList" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>USERNAME</t>
   </si>
@@ -92,13 +93,25 @@
     <t>TEST_ENGG1</t>
   </si>
   <si>
-    <t>Devloper</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Manager1</t>
+  </si>
+  <si>
+    <t>managerFirst</t>
+  </si>
+  <si>
+    <t>Customer_Name</t>
+  </si>
+  <si>
+    <t>ICICI BANK</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>WebApplication</t>
   </si>
 </sst>
 </file>
@@ -582,16 +595,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A511C2-544B-4381-AFBF-6BCF6A410D9A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -626,4 +638,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585635C8-E874-4C7E-AABE-7C03B36CE600}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>